--- a/test2/result_GoPro_shoulder_003/result.xlsx
+++ b/test2/result_GoPro_shoulder_003/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE3375A-E0B4-4E81-84B2-E0A8C9420EC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE8E42-D68C-4A56-B6B4-3AC7323EC5D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -379,6 +379,1938 @@
       <c r="A2">
         <v>9</v>
       </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>75</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>78</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>81</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>84</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>87</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>93</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>96</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>99</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>102</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>105</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>108</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>111</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>114</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>117</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>120</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>123</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>126</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>129</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>132</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>135</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>138</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>141</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>144</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>147</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>150</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>153</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>156</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>159</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>162</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>165</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>168</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>171</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>174</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>177</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>180</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>183</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>186</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>189</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>192</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>195</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>198</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>201</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>204</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>207</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>210</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>213</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>216</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>219</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>222</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>225</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>228</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>231</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>234</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>237</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>240</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>243</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>246</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>249</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>252</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>255</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>258</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>261</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>264</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>267</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>270</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>273</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>276</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>279</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>282</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>285</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>288</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>291</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>294</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>297</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>300</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>303</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>306</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>309</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>312</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>315</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>318</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>321</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>324</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>327</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>330</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>333</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>336</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>339</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>342</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>345</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>348</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>351</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>354</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>357</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>360</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>363</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>366</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>369</v>
+      </c>
+      <c r="B122">
+        <v>6</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>372</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>375</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>378</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>381</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>384</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>387</v>
+      </c>
+      <c r="B128">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>6</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>390</v>
+      </c>
+      <c r="B129">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>393</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>396</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>399</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>402</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>405</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>408</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>411</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>414</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>417</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>671</v>
+      </c>
+      <c r="C139">
+        <v>418</v>
+      </c>
+      <c r="D139">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>0.623</v>
+      </c>
+      <c r="D140">
+        <v>0.27679999999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
